--- a/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,21 +49,18 @@
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -73,82 +70,85 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>online</t>
@@ -157,27 +157,42 @@
     <t>shopping</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>for</t>
   </si>
   <si>
@@ -187,19 +202,34 @@
     <t>.</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -557,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +595,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +706,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7207792207792207</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +724,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -726,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4721030042918455</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.375</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3255813953488372</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3043478260869565</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2074074074074074</v>
+        <v>0.1305555555555556</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +1006,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1818181818181818</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,69 +1024,45 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L10">
+        <v>46</v>
+      </c>
+      <c r="M10">
+        <v>46</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.85</v>
-      </c>
-      <c r="L10">
-        <v>34</v>
-      </c>
-      <c r="M10">
-        <v>34</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>169</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1146,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1172,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.7125</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1198,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1224,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7397260273972602</v>
+        <v>0.7</v>
       </c>
       <c r="L18">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1250,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7068965517241379</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1276,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.696969696969697</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1302,21 +1308,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1328,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1354,21 +1360,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6572769953051644</v>
+        <v>0.5796344647519582</v>
       </c>
       <c r="L23">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="M23">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1380,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1406,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1432,21 +1438,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5426356589147286</v>
+        <v>0.5029411764705882</v>
       </c>
       <c r="L26">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="M26">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1458,21 +1464,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>59</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4891304347826087</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1484,21 +1490,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4736842105263158</v>
+        <v>0.4686192468619247</v>
       </c>
       <c r="L28">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M28">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1510,21 +1516,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4571428571428571</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1536,21 +1542,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.09595959595959595</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1562,21 +1568,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>179</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.07655502392344497</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,21 +1594,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>193</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.05482456140350877</v>
+        <v>0.0889423076923077</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,371 +1620,657 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>431</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.05121951219512195</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.04218362282878412</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>386</v>
+        <v>458</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.03386004514672687</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>428</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.03365384615384615</v>
+        <v>0.05246913580246913</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>804</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.03286384976525822</v>
+        <v>0.05091819699499165</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>412</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.03239740820734342</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M38">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>896</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.03134796238244514</v>
+        <v>0.0486322188449848</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>618</v>
+        <v>939</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
-        <v>0.02325581395348837</v>
+        <v>0.04734411085450346</v>
       </c>
       <c r="L40">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N40">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0.16</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1092</v>
+        <v>825</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
-        <v>0.01934134866701516</v>
+        <v>0.0447427293064877</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M41">
         <v>40</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1876</v>
+        <v>854</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
-        <v>0.01810436634717785</v>
+        <v>0.03788447111777944</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>922</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>0.01715438950554995</v>
+        <v>0.0375</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N43">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1948</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K44">
-        <v>0.01687763713080169</v>
+        <v>0.03697617091207888</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N44">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="O44">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>932</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45">
-        <v>0.01669877970456005</v>
+        <v>0.03331238214959145</v>
       </c>
       <c r="L45">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M45">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="N45">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.21</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1531</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46">
+        <v>0.03280224929709466</v>
+      </c>
+      <c r="L46">
+        <v>70</v>
+      </c>
+      <c r="M46">
+        <v>79</v>
+      </c>
+      <c r="N46">
+        <v>0.89</v>
+      </c>
+      <c r="O46">
+        <v>0.11</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K46">
-        <v>0.01436781609195402</v>
-      </c>
-      <c r="L46">
-        <v>25</v>
-      </c>
-      <c r="M46">
-        <v>31</v>
-      </c>
-      <c r="N46">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O46">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>1715</v>
+      <c r="K47">
+        <v>0.03171417101565636</v>
+      </c>
+      <c r="L47">
+        <v>158</v>
+      </c>
+      <c r="M47">
+        <v>172</v>
+      </c>
+      <c r="N47">
+        <v>0.92</v>
+      </c>
+      <c r="O47">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48">
+        <v>0.02660472972972973</v>
+      </c>
+      <c r="L48">
+        <v>63</v>
+      </c>
+      <c r="M48">
+        <v>74</v>
+      </c>
+      <c r="N48">
+        <v>0.85</v>
+      </c>
+      <c r="O48">
+        <v>0.15</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.02571638501102131</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>0.95</v>
+      </c>
+      <c r="O49">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50">
+        <v>0.02551679586563307</v>
+      </c>
+      <c r="L50">
+        <v>79</v>
+      </c>
+      <c r="M50">
+        <v>90</v>
+      </c>
+      <c r="N50">
+        <v>0.88</v>
+      </c>
+      <c r="O50">
+        <v>0.12</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51">
+        <v>0.02505827505827506</v>
+      </c>
+      <c r="L51">
+        <v>129</v>
+      </c>
+      <c r="M51">
+        <v>146</v>
+      </c>
+      <c r="N51">
+        <v>0.88</v>
+      </c>
+      <c r="O51">
+        <v>0.12</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52">
+        <v>0.02332814930015552</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52">
+        <v>33</v>
+      </c>
+      <c r="N52">
+        <v>0.91</v>
+      </c>
+      <c r="O52">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53">
+        <v>0.02233597021870638</v>
+      </c>
+      <c r="L53">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <v>57</v>
+      </c>
+      <c r="N53">
+        <v>0.84</v>
+      </c>
+      <c r="O53">
+        <v>0.16</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54">
+        <v>0.02130434782608696</v>
+      </c>
+      <c r="L54">
+        <v>49</v>
+      </c>
+      <c r="M54">
+        <v>58</v>
+      </c>
+      <c r="N54">
+        <v>0.84</v>
+      </c>
+      <c r="O54">
+        <v>0.16</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K55">
+        <v>0.02130122713591109</v>
+      </c>
+      <c r="L55">
+        <v>92</v>
+      </c>
+      <c r="M55">
+        <v>101</v>
+      </c>
+      <c r="N55">
+        <v>0.91</v>
+      </c>
+      <c r="O55">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K56">
+        <v>0.01631116687578419</v>
+      </c>
+      <c r="L56">
+        <v>39</v>
+      </c>
+      <c r="M56">
+        <v>42</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L57">
+        <v>52</v>
+      </c>
+      <c r="M57">
+        <v>63</v>
+      </c>
+      <c r="N57">
+        <v>0.83</v>
+      </c>
+      <c r="O57">
+        <v>0.17</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3138</v>
       </c>
     </row>
   </sheetData>
